--- a/Inputs.xlsx
+++ b/Inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0F926-29AB-43BA-9FCA-FA0847CD3C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2257ED60-510A-4810-88DA-2AA74FD3E2E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -136,9 +133,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -156,12 +150,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -172,6 +160,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,7 +457,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,22 +470,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -493,16 +493,16 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="11">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="15">
         <v>177.5</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="11">
         <v>0.6</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>24</v>
       </c>
       <c r="F2" s="2">
@@ -513,16 +513,16 @@
       <c r="A3" s="1">
         <v>0.2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="15">
         <v>179</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>0.65</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>24.15</v>
       </c>
       <c r="F3" s="2">
@@ -533,16 +533,16 @@
       <c r="A4" s="1">
         <v>0.4</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="15">
         <v>180</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="12">
         <v>0.85</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>24.299999999999997</v>
       </c>
       <c r="F4" s="2">
@@ -553,16 +553,16 @@
       <c r="A5" s="1">
         <v>0.6</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>14</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="15">
         <v>183</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>0.45</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>24.449999999999996</v>
       </c>
       <c r="F5" s="2">
@@ -573,16 +573,16 @@
       <c r="A6" s="1">
         <v>0.8</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="15">
         <v>184.5</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>0.46</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>24.5</v>
       </c>
       <c r="F6" s="2">
@@ -590,82 +590,82 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11">
         <v>18</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="16">
         <v>222</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <v>0.65</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>24.749999999999993</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>1.2</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>20</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="17">
         <v>224</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="13">
         <v>0.34</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>24.899999999999991</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>1.4</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>22</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="17">
         <v>225</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>0.36</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>25.04999999999999</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>1.6</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>24</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="17">
         <v>229</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>25.199999999999989</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>1</v>
       </c>
     </row>
@@ -676,13 +676,13 @@
       <c r="B11" s="2">
         <v>26</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="18">
         <v>267</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>0.65</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>25.349999999999987</v>
       </c>
       <c r="F11" s="2">
@@ -696,13 +696,13 @@
       <c r="B12" s="2">
         <v>28</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="15">
         <v>269</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>0.64</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>25.5</v>
       </c>
       <c r="F12" s="2">
@@ -716,13 +716,13 @@
       <c r="B13" s="2">
         <v>30</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="15">
         <v>270</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="12">
         <v>0.67</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>25.5</v>
       </c>
       <c r="F13" s="2">
@@ -736,13 +736,13 @@
       <c r="B14" s="2">
         <v>52</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="15">
         <v>272</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12">
         <v>0.78</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>27.3</v>
       </c>
       <c r="F14" s="2">
@@ -756,13 +756,13 @@
       <c r="B15" s="2">
         <v>56</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="15">
         <v>274.5</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>0.54</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>27.599999999999966</v>
       </c>
       <c r="F15" s="2">
@@ -776,13 +776,13 @@
       <c r="B16" s="2">
         <v>60</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="15">
         <v>313</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <v>0.44</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>27.899999999999963</v>
       </c>
       <c r="F16" s="2">
@@ -796,13 +796,13 @@
       <c r="B17" s="2">
         <v>66</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="15">
         <v>314</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>0.6</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>28.1</v>
       </c>
       <c r="F17" s="2">
@@ -816,13 +816,13 @@
       <c r="B18" s="2">
         <v>70</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="15">
         <v>315</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="12">
         <v>0.73</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>28.649999999999956</v>
       </c>
       <c r="F18" s="2">
@@ -836,13 +836,13 @@
       <c r="B19" s="2">
         <v>78</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="15">
         <v>319.2</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>0.3</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>29.24999999999995</v>
       </c>
       <c r="F19" s="2">
@@ -856,13 +856,13 @@
       <c r="B20" s="2">
         <v>82</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="18">
         <v>340</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="11">
         <v>0.25</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>29.549999999999947</v>
       </c>
       <c r="F20" s="2">
@@ -876,13 +876,13 @@
       <c r="B21" s="2">
         <v>86</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="18">
         <v>345</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <v>0.2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>29.849999999999945</v>
       </c>
       <c r="F21" s="2">
@@ -896,10 +896,10 @@
       <c r="B22" s="2">
         <v>90</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="18">
         <v>350</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <v>0.26</v>
       </c>
       <c r="E22" s="1">
@@ -911,5 +911,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>